--- a/npbenchmark-main/SDK.PCP/PCPResult.xlsx
+++ b/npbenchmark-main/SDK.PCP/PCPResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640D490E-EFE9-4E29-9328-0FE51D40F482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE79C6-75F7-460C-BE80-F46C8AB5C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -415,6 +415,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npbenchmark-main/SDK.PCP/PCPResult.xlsx
+++ b/npbenchmark-main/SDK.PCP/PCPResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE79C6-75F7-460C-BE80-F46C8AB5C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466429C6-FCDC-4F73-90B2-2342B20AE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,10 +414,21 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/SDK.PCP/PCPResult.xlsx
+++ b/npbenchmark-main/SDK.PCP/PCPResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466429C6-FCDC-4F73-90B2-2342B20AE61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E42F2-F5B9-4C4E-ABE2-B15CC640DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,77 +365,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>4153</v>
+      </c>
+      <c r="C1">
+        <v>4154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>291</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
     </row>

--- a/npbenchmark-main/SDK.PCP/PCPResult.xlsx
+++ b/npbenchmark-main/SDK.PCP/PCPResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E42F2-F5B9-4C4E-ABE2-B15CC640DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269B31A-0F42-4697-9D9E-80C63A9F48C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>rand/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no rand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,129 +369,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>4153</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>4154</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>271</v>
+      </c>
+      <c r="D2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C11">
+        <v>4153</v>
+      </c>
+      <c r="D11">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>271</v>
-      </c>
-      <c r="C2">
-        <v>291</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>4153</v>
+      </c>
+      <c r="D21">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C23">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C27">
+        <v>633.76300000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>8</v>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/SDK.PCP/PCPResult.xlsx
+++ b/npbenchmark-main/SDK.PCP/PCPResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269B31A-0F42-4697-9D9E-80C63A9F48C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761D6375-7A49-4607-9900-17CC0BBF3B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>no rand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -563,20 +567,126 @@
       <c r="B28">
         <v>7</v>
       </c>
+      <c r="C28">
+        <v>491.77499999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>8</v>
       </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>9</v>
       </c>
+      <c r="C30">
+        <v>179.351</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>4153</v>
+      </c>
+      <c r="D33">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>442.464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>656.72500000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>1848.71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>229.739</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>381.90899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>826.346</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/SDK.PCP/PCPResult.xlsx
+++ b/npbenchmark-main/SDK.PCP/PCPResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761D6375-7A49-4607-9900-17CC0BBF3B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DEC9B3-F9C9-44E1-8CD6-2DCF86CC8A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -399,7 +406,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>271</v>
       </c>
       <c r="D2">
@@ -410,6 +417,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -418,186 +428,208 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1308.26</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" s="1">
+        <v>178.77199999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>853</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>2657.54</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>862.351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>4153</v>
-      </c>
-      <c r="D11">
-        <v>4154</v>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>120.41800000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>239.86500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>958.88599999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>419.71600000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>884.90200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>58.732500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>193.96700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>34.394599999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>4153</v>
-      </c>
-      <c r="D21">
-        <v>4154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>798.06600000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1704.54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44.5747</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>633.76300000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>491.77499999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>179.351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -621,72 +653,273 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>442.464</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38">
-        <v>306</v>
-      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>6</v>
       </c>
-      <c r="C39">
-        <v>656.72500000000002</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>7</v>
       </c>
-      <c r="C40">
-        <v>1848.71</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>4153</v>
+      </c>
+      <c r="D43">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>633.76300000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>491.77499999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1">
+        <v>179.351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>4153</v>
+      </c>
+      <c r="D55">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>442.464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>656.72500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1848.71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
         <v>229.739</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>9</v>
       </c>
-      <c r="C42">
+      <c r="C64" s="1">
         <v>381.90899999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="C65">
         <v>826.346</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/SDK.PCP/PCPResult.xlsx
+++ b/npbenchmark-main/SDK.PCP/PCPResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\SDK.PCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DEC9B3-F9C9-44E1-8CD6-2DCF86CC8A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8102440-64DE-4D38-9471-6462194DDA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -596,10 +596,16 @@
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25" s="1">
+        <v>296.51100000000002</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
